--- a/data/output/seat_status_updated_classroom_image14.xlsx
+++ b/data/output/seat_status_updated_classroom_image14.xlsx
@@ -573,7 +573,7 @@
         <v>695.2340698242188</v>
       </c>
       <c r="C5" t="n">
-        <v>363.2070922851562</v>
+        <v>363.2070617675781</v>
       </c>
       <c r="D5" t="n">
         <v>735.684326171875</v>
@@ -627,19 +627,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>473.0093383789062</v>
+        <v>473.0093078613281</v>
       </c>
       <c r="B7" t="n">
         <v>696.55859375</v>
       </c>
       <c r="C7" t="n">
-        <v>533.5348510742188</v>
+        <v>533.5347900390625</v>
       </c>
       <c r="D7" t="n">
         <v>749.340576171875</v>
       </c>
       <c r="E7" t="n">
-        <v>503.2720947265625</v>
+        <v>503.2720336914062</v>
       </c>
       <c r="F7" t="n">
         <v>722.9495849609375</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>575.2584228515625</v>
+        <v>575.2584838867188</v>
       </c>
       <c r="B8" t="n">
         <v>699.5797119140625</v>
@@ -687,19 +687,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.229166030883789</v>
+        <v>2.229175567626953</v>
       </c>
       <c r="B9" t="n">
         <v>685.0387573242188</v>
       </c>
       <c r="C9" t="n">
-        <v>93.66394805908203</v>
+        <v>93.66395568847656</v>
       </c>
       <c r="D9" t="n">
         <v>809.2933349609375</v>
       </c>
       <c r="E9" t="n">
-        <v>47.94655609130859</v>
+        <v>47.94656372070312</v>
       </c>
       <c r="F9" t="n">
         <v>747.166015625</v>
@@ -753,13 +753,13 @@
         <v>697.573974609375</v>
       </c>
       <c r="C11" t="n">
-        <v>243.5135650634766</v>
+        <v>243.5135955810547</v>
       </c>
       <c r="D11" t="n">
         <v>858.5194091796875</v>
       </c>
       <c r="E11" t="n">
-        <v>193.6851654052734</v>
+        <v>193.6851806640625</v>
       </c>
       <c r="F11" t="n">
         <v>778.0466918945312</v>
@@ -807,19 +807,19 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>231.1942901611328</v>
+        <v>231.1942596435547</v>
       </c>
       <c r="B13" t="n">
         <v>703.9474487304688</v>
       </c>
       <c r="C13" t="n">
-        <v>350.6093444824219</v>
+        <v>350.6093139648438</v>
       </c>
       <c r="D13" t="n">
         <v>885.220458984375</v>
       </c>
       <c r="E13" t="n">
-        <v>290.9018249511719</v>
+        <v>290.9017944335938</v>
       </c>
       <c r="F13" t="n">
         <v>794.583984375</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>527.3713989257812</v>
+        <v>527.3714599609375</v>
       </c>
       <c r="B15" t="n">
         <v>705.98583984375</v>
@@ -960,13 +960,13 @@
         <v>1426.811645507812</v>
       </c>
       <c r="B18" t="n">
-        <v>798.75732421875</v>
+        <v>798.7573852539062</v>
       </c>
       <c r="C18" t="n">
         <v>1586.838500976562</v>
       </c>
       <c r="D18" t="n">
-        <v>1013.566101074219</v>
+        <v>1013.566040039062</v>
       </c>
       <c r="E18" t="n">
         <v>1506.825073242188</v>

--- a/data/output/seat_status_updated_classroom_image14.xlsx
+++ b/data/output/seat_status_updated_classroom_image14.xlsx
@@ -477,22 +477,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1555.420043945312</v>
+        <v>1555.394287109375</v>
       </c>
       <c r="B2" t="n">
-        <v>676.0381469726562</v>
+        <v>676.058349609375</v>
       </c>
       <c r="C2" t="n">
         <v>1600</v>
       </c>
       <c r="D2" t="n">
-        <v>737.8369750976562</v>
+        <v>737.957275390625</v>
       </c>
       <c r="E2" t="n">
-        <v>1577.7099609375</v>
+        <v>1577.697143554688</v>
       </c>
       <c r="F2" t="n">
-        <v>706.9375610351562</v>
+        <v>707.0078125</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -507,22 +507,22 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>158.4345092773438</v>
+        <v>158.3069305419922</v>
       </c>
       <c r="B3" t="n">
-        <v>689.3798217773438</v>
+        <v>689.4305419921875</v>
       </c>
       <c r="C3" t="n">
-        <v>219.0638122558594</v>
+        <v>218.9995727539062</v>
       </c>
       <c r="D3" t="n">
-        <v>731.1211547851562</v>
+        <v>731.1300659179688</v>
       </c>
       <c r="E3" t="n">
-        <v>188.7491607666016</v>
+        <v>188.6532592773438</v>
       </c>
       <c r="F3" t="n">
-        <v>710.25048828125</v>
+        <v>710.2802734375</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -537,22 +537,22 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>252.7915191650391</v>
+        <v>252.6865997314453</v>
       </c>
       <c r="B4" t="n">
-        <v>689.6963500976562</v>
+        <v>689.7258911132812</v>
       </c>
       <c r="C4" t="n">
-        <v>311.9738464355469</v>
+        <v>311.9234924316406</v>
       </c>
       <c r="D4" t="n">
-        <v>734.3606567382812</v>
+        <v>734.347900390625</v>
       </c>
       <c r="E4" t="n">
-        <v>282.3826904296875</v>
+        <v>282.3050537109375</v>
       </c>
       <c r="F4" t="n">
-        <v>712.0285034179688</v>
+        <v>712.036865234375</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -567,22 +567,22 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>304.3280944824219</v>
+        <v>304.6820068359375</v>
       </c>
       <c r="B5" t="n">
-        <v>695.2340698242188</v>
+        <v>695.2680053710938</v>
       </c>
       <c r="C5" t="n">
-        <v>363.2070617675781</v>
+        <v>363.1844177246094</v>
       </c>
       <c r="D5" t="n">
-        <v>735.684326171875</v>
+        <v>735.6966552734375</v>
       </c>
       <c r="E5" t="n">
-        <v>333.767578125</v>
+        <v>333.9332275390625</v>
       </c>
       <c r="F5" t="n">
-        <v>715.459228515625</v>
+        <v>715.4822998046875</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -597,22 +597,22 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>411.1321105957031</v>
+        <v>411.0144653320312</v>
       </c>
       <c r="B6" t="n">
-        <v>695.9267578125</v>
+        <v>695.8483276367188</v>
       </c>
       <c r="C6" t="n">
-        <v>473.5250854492188</v>
+        <v>473.6296081542969</v>
       </c>
       <c r="D6" t="n">
-        <v>744.8351440429688</v>
+        <v>744.8657836914062</v>
       </c>
       <c r="E6" t="n">
-        <v>442.32861328125</v>
+        <v>442.322021484375</v>
       </c>
       <c r="F6" t="n">
-        <v>720.3809814453125</v>
+        <v>720.3570556640625</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -627,22 +627,22 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>473.0093078613281</v>
+        <v>472.9508056640625</v>
       </c>
       <c r="B7" t="n">
-        <v>696.55859375</v>
+        <v>696.5868530273438</v>
       </c>
       <c r="C7" t="n">
-        <v>533.5347900390625</v>
+        <v>533.4267578125</v>
       </c>
       <c r="D7" t="n">
-        <v>749.340576171875</v>
+        <v>749.2557373046875</v>
       </c>
       <c r="E7" t="n">
-        <v>503.2720336914062</v>
+        <v>503.1887817382812</v>
       </c>
       <c r="F7" t="n">
-        <v>722.9495849609375</v>
+        <v>722.9212646484375</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -657,22 +657,22 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>575.2584838867188</v>
+        <v>575.150146484375</v>
       </c>
       <c r="B8" t="n">
-        <v>699.5797119140625</v>
+        <v>699.5840454101562</v>
       </c>
       <c r="C8" t="n">
-        <v>653.0316162109375</v>
+        <v>652.9837036132812</v>
       </c>
       <c r="D8" t="n">
-        <v>755.7891235351562</v>
+        <v>755.8079223632812</v>
       </c>
       <c r="E8" t="n">
-        <v>614.14501953125</v>
+        <v>614.06689453125</v>
       </c>
       <c r="F8" t="n">
-        <v>727.6844482421875</v>
+        <v>727.6959838867188</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -687,22 +687,22 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.229175567626953</v>
+        <v>2.246685028076172</v>
       </c>
       <c r="B9" t="n">
-        <v>685.0387573242188</v>
+        <v>685.0558471679688</v>
       </c>
       <c r="C9" t="n">
-        <v>93.66395568847656</v>
+        <v>93.84618377685547</v>
       </c>
       <c r="D9" t="n">
-        <v>809.2933349609375</v>
+        <v>809.212158203125</v>
       </c>
       <c r="E9" t="n">
-        <v>47.94656372070312</v>
+        <v>48.04643249511719</v>
       </c>
       <c r="F9" t="n">
-        <v>747.166015625</v>
+        <v>747.134033203125</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -717,22 +717,22 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>944.4689331054688</v>
+        <v>944.47607421875</v>
       </c>
       <c r="B10" t="n">
-        <v>700.6161499023438</v>
+        <v>700.3512573242188</v>
       </c>
       <c r="C10" t="n">
-        <v>1021.671813964844</v>
+        <v>1021.833435058594</v>
       </c>
       <c r="D10" t="n">
-        <v>833.3279418945312</v>
+        <v>833.3908081054688</v>
       </c>
       <c r="E10" t="n">
-        <v>983.0703735351562</v>
+        <v>983.15478515625</v>
       </c>
       <c r="F10" t="n">
-        <v>766.9720458984375</v>
+        <v>766.8710327148438</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -747,22 +747,22 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>143.8567657470703</v>
+        <v>143.9887237548828</v>
       </c>
       <c r="B11" t="n">
-        <v>697.573974609375</v>
+        <v>697.8330688476562</v>
       </c>
       <c r="C11" t="n">
-        <v>243.5135955810547</v>
+        <v>243.0095977783203</v>
       </c>
       <c r="D11" t="n">
-        <v>858.5194091796875</v>
+        <v>858.4243774414062</v>
       </c>
       <c r="E11" t="n">
-        <v>193.6851806640625</v>
+        <v>193.4991607666016</v>
       </c>
       <c r="F11" t="n">
-        <v>778.0466918945312</v>
+        <v>778.1287231445312</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -777,22 +777,22 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>338.8921203613281</v>
+        <v>338.8570251464844</v>
       </c>
       <c r="B12" t="n">
-        <v>700.682373046875</v>
+        <v>700.4461669921875</v>
       </c>
       <c r="C12" t="n">
-        <v>480.8312072753906</v>
+        <v>480.8464660644531</v>
       </c>
       <c r="D12" t="n">
-        <v>879.7160034179688</v>
+        <v>880.1123046875</v>
       </c>
       <c r="E12" t="n">
-        <v>409.8616638183594</v>
+        <v>409.8517456054688</v>
       </c>
       <c r="F12" t="n">
-        <v>790.19921875</v>
+        <v>790.2792358398438</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -807,22 +807,22 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>231.1942596435547</v>
+        <v>231.0748901367188</v>
       </c>
       <c r="B13" t="n">
-        <v>703.9474487304688</v>
+        <v>704.3425903320312</v>
       </c>
       <c r="C13" t="n">
-        <v>350.6093139648438</v>
+        <v>351.0051574707031</v>
       </c>
       <c r="D13" t="n">
-        <v>885.220458984375</v>
+        <v>886.1646118164062</v>
       </c>
       <c r="E13" t="n">
-        <v>290.9017944335938</v>
+        <v>291.0400390625</v>
       </c>
       <c r="F13" t="n">
-        <v>794.583984375</v>
+        <v>795.2536010742188</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -837,22 +837,22 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>401.8143005371094</v>
+        <v>401.5805358886719</v>
       </c>
       <c r="B14" t="n">
-        <v>716.4349365234375</v>
+        <v>715.7113647460938</v>
       </c>
       <c r="C14" t="n">
-        <v>526.4990234375</v>
+        <v>526.6876220703125</v>
       </c>
       <c r="D14" t="n">
-        <v>896.1495971679688</v>
+        <v>896.3279418945312</v>
       </c>
       <c r="E14" t="n">
-        <v>464.1566772460938</v>
+        <v>464.1340942382812</v>
       </c>
       <c r="F14" t="n">
-        <v>806.292236328125</v>
+        <v>806.0196533203125</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -867,22 +867,22 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>527.3714599609375</v>
+        <v>527.1949462890625</v>
       </c>
       <c r="B15" t="n">
-        <v>705.98583984375</v>
+        <v>705.80712890625</v>
       </c>
       <c r="C15" t="n">
-        <v>659.6292724609375</v>
+        <v>659.6083984375</v>
       </c>
       <c r="D15" t="n">
-        <v>906.8869018554688</v>
+        <v>906.9315185546875</v>
       </c>
       <c r="E15" t="n">
-        <v>593.5003662109375</v>
+        <v>593.4016723632812</v>
       </c>
       <c r="F15" t="n">
-        <v>806.4364013671875</v>
+        <v>806.3693237304688</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -897,22 +897,22 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>651.3306884765625</v>
+        <v>651.2872924804688</v>
       </c>
       <c r="B16" t="n">
-        <v>703.5830688476562</v>
+        <v>703.8526000976562</v>
       </c>
       <c r="C16" t="n">
-        <v>806.1669921875</v>
+        <v>806.0425415039062</v>
       </c>
       <c r="D16" t="n">
-        <v>916.245849609375</v>
+        <v>916.294921875</v>
       </c>
       <c r="E16" t="n">
-        <v>728.7488403320312</v>
+        <v>728.6649169921875</v>
       </c>
       <c r="F16" t="n">
-        <v>809.9144287109375</v>
+        <v>810.07373046875</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -927,22 +927,22 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>823.4141235351562</v>
+        <v>823.143310546875</v>
       </c>
       <c r="B17" t="n">
-        <v>706.6166381835938</v>
+        <v>706.4710693359375</v>
       </c>
       <c r="C17" t="n">
-        <v>970.4307250976562</v>
+        <v>970.4574584960938</v>
       </c>
       <c r="D17" t="n">
-        <v>944.2094116210938</v>
+        <v>944.085693359375</v>
       </c>
       <c r="E17" t="n">
-        <v>896.9224243164062</v>
+        <v>896.8004150390625</v>
       </c>
       <c r="F17" t="n">
-        <v>825.4130249023438</v>
+        <v>825.2783813476562</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -957,22 +957,22 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1426.811645507812</v>
+        <v>1426.723876953125</v>
       </c>
       <c r="B18" t="n">
-        <v>798.7573852539062</v>
+        <v>799.2736206054688</v>
       </c>
       <c r="C18" t="n">
-        <v>1586.838500976562</v>
+        <v>1586.608520507812</v>
       </c>
       <c r="D18" t="n">
-        <v>1013.566040039062</v>
+        <v>1013.519653320312</v>
       </c>
       <c r="E18" t="n">
-        <v>1506.825073242188</v>
+        <v>1506.666259765625</v>
       </c>
       <c r="F18" t="n">
-        <v>906.1617431640625</v>
+        <v>906.3966064453125</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
